--- a/matlabCode/operantMatching/goodBehDays.xlsx
+++ b/matlabCode/operantMatching/goodBehDays.xlsx
@@ -1,47 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooper_PC\Desktop\githubRepositories\cooperAnalysis\matlabCode\operantMatching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{535C5E87-CC6C-4357-A781-678F11E6E888}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6497C4-5F9B-48EE-8362-AAED41493495}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21975" windowHeight="16680" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21975" windowHeight="16680" tabRatio="875" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="29" r:id="rId1"/>
-    <sheet name="CG52" sheetId="47" r:id="rId2"/>
-    <sheet name="CG51" sheetId="46" r:id="rId3"/>
-    <sheet name="dreadds" sheetId="35" r:id="rId4"/>
-    <sheet name="CG50" sheetId="45" r:id="rId5"/>
-    <sheet name="CG49" sheetId="44" r:id="rId6"/>
-    <sheet name="CG48" sheetId="43" r:id="rId7"/>
-    <sheet name="CG47" sheetId="42" r:id="rId8"/>
-    <sheet name="CG46" sheetId="41" r:id="rId9"/>
-    <sheet name="CG45" sheetId="40" r:id="rId10"/>
-    <sheet name="CG44" sheetId="34" r:id="rId11"/>
-    <sheet name="CG43" sheetId="33" r:id="rId12"/>
-    <sheet name="CG42" sheetId="32" r:id="rId13"/>
-    <sheet name="CG41" sheetId="31" r:id="rId14"/>
-    <sheet name="CG25" sheetId="28" r:id="rId15"/>
-    <sheet name="CG24" sheetId="27" r:id="rId16"/>
-    <sheet name="CG23" sheetId="26" r:id="rId17"/>
-    <sheet name="CG18" sheetId="37" r:id="rId18"/>
-    <sheet name="CG16" sheetId="30" r:id="rId19"/>
-    <sheet name="dta" sheetId="36" r:id="rId20"/>
-    <sheet name="CG15" sheetId="11" r:id="rId21"/>
-    <sheet name="CG14" sheetId="9" r:id="rId22"/>
-    <sheet name="CG13" sheetId="3" r:id="rId23"/>
-    <sheet name="CG09" sheetId="2" r:id="rId24"/>
-    <sheet name="CG05" sheetId="10" r:id="rId25"/>
-    <sheet name="CG04" sheetId="25" r:id="rId26"/>
-    <sheet name="CG03" sheetId="24" r:id="rId27"/>
+    <sheet name="chr2" sheetId="58" r:id="rId2"/>
+    <sheet name="CG66" sheetId="56" r:id="rId3"/>
+    <sheet name="CG65" sheetId="55" r:id="rId4"/>
+    <sheet name="CG64" sheetId="54" r:id="rId5"/>
+    <sheet name="CG63" sheetId="53" r:id="rId6"/>
+    <sheet name="arch" sheetId="57" r:id="rId7"/>
+    <sheet name="CG62" sheetId="51" r:id="rId8"/>
+    <sheet name="CG61" sheetId="50" r:id="rId9"/>
+    <sheet name="CG60" sheetId="49" r:id="rId10"/>
+    <sheet name="CG59" sheetId="48" r:id="rId11"/>
+    <sheet name="CG52" sheetId="47" r:id="rId12"/>
+    <sheet name="CG51" sheetId="46" r:id="rId13"/>
+    <sheet name="dreadds" sheetId="35" r:id="rId14"/>
+    <sheet name="CG50" sheetId="45" r:id="rId15"/>
+    <sheet name="CG49" sheetId="44" r:id="rId16"/>
+    <sheet name="CG48" sheetId="43" r:id="rId17"/>
+    <sheet name="CG47" sheetId="42" r:id="rId18"/>
+    <sheet name="CG46" sheetId="41" r:id="rId19"/>
+    <sheet name="CG45" sheetId="40" r:id="rId20"/>
+    <sheet name="CG44" sheetId="34" r:id="rId21"/>
+    <sheet name="CG43" sheetId="33" r:id="rId22"/>
+    <sheet name="CG42" sheetId="32" r:id="rId23"/>
+    <sheet name="CG41" sheetId="31" r:id="rId24"/>
+    <sheet name="CG39" sheetId="52" r:id="rId25"/>
+    <sheet name="CG25" sheetId="28" r:id="rId26"/>
+    <sheet name="CG24" sheetId="27" r:id="rId27"/>
+    <sheet name="CG23" sheetId="26" r:id="rId28"/>
+    <sheet name="CG18" sheetId="37" r:id="rId29"/>
+    <sheet name="CG16" sheetId="30" r:id="rId30"/>
+    <sheet name="dta" sheetId="36" r:id="rId31"/>
+    <sheet name="CG15" sheetId="11" r:id="rId32"/>
+    <sheet name="CG14" sheetId="9" r:id="rId33"/>
+    <sheet name="CG13" sheetId="3" r:id="rId34"/>
+    <sheet name="CG09" sheetId="2" r:id="rId35"/>
+    <sheet name="CG05" sheetId="10" r:id="rId36"/>
+    <sheet name="CG04" sheetId="25" r:id="rId37"/>
+    <sheet name="CG03" sheetId="24" r:id="rId38"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="1071">
   <si>
     <t>mCG05d20161115</t>
   </si>
@@ -2325,6 +2336,948 @@
   </si>
   <si>
     <t>mCG52d20180830</t>
+  </si>
+  <si>
+    <t>mCG59d20180914</t>
+  </si>
+  <si>
+    <t>mCG59d20180919</t>
+  </si>
+  <si>
+    <t>mCG59d20180920</t>
+  </si>
+  <si>
+    <t>mCG59d20180921</t>
+  </si>
+  <si>
+    <t>mCG59d20180924</t>
+  </si>
+  <si>
+    <t>mCG59d20180925</t>
+  </si>
+  <si>
+    <t>mCG59d20180926</t>
+  </si>
+  <si>
+    <t>mCG59d20180927</t>
+  </si>
+  <si>
+    <t>mCG59d20181002</t>
+  </si>
+  <si>
+    <t>mCG60d20180914</t>
+  </si>
+  <si>
+    <t>mCG60d20180919</t>
+  </si>
+  <si>
+    <t>mCG60d20180920</t>
+  </si>
+  <si>
+    <t>mCG60d20180921</t>
+  </si>
+  <si>
+    <t>mCG60d20180924</t>
+  </si>
+  <si>
+    <t>mCG60d20180925</t>
+  </si>
+  <si>
+    <t>mCG60d20180926</t>
+  </si>
+  <si>
+    <t>mCG60d20180927</t>
+  </si>
+  <si>
+    <t>mCG60d20181002</t>
+  </si>
+  <si>
+    <t>mCG61d20180914</t>
+  </si>
+  <si>
+    <t>mCG61d20180919</t>
+  </si>
+  <si>
+    <t>mCG61d20180920</t>
+  </si>
+  <si>
+    <t>mCG61d20180921</t>
+  </si>
+  <si>
+    <t>mCG61d20180924</t>
+  </si>
+  <si>
+    <t>mCG61d20180925</t>
+  </si>
+  <si>
+    <t>mCG61d20180926</t>
+  </si>
+  <si>
+    <t>mCG61d20180927</t>
+  </si>
+  <si>
+    <t>mCG61d20181002</t>
+  </si>
+  <si>
+    <t>mCG61d20180913</t>
+  </si>
+  <si>
+    <t>mCG62d20180913</t>
+  </si>
+  <si>
+    <t>mCG62d20180919</t>
+  </si>
+  <si>
+    <t>mCG62d20180920</t>
+  </si>
+  <si>
+    <t>mCG62d20180921</t>
+  </si>
+  <si>
+    <t>mCG62d20180924</t>
+  </si>
+  <si>
+    <t>mCG62d20180925</t>
+  </si>
+  <si>
+    <t>mCG62d20180926</t>
+  </si>
+  <si>
+    <t>mCG62d20181002</t>
+  </si>
+  <si>
+    <t>mCG62d20180916</t>
+  </si>
+  <si>
+    <t>mCG62d20180928</t>
+  </si>
+  <si>
+    <t>mCG59d20181003</t>
+  </si>
+  <si>
+    <t>mCG59d20181004</t>
+  </si>
+  <si>
+    <t>mCG59d20181005</t>
+  </si>
+  <si>
+    <t>mCG59d20181008</t>
+  </si>
+  <si>
+    <t>mCG59d20181009</t>
+  </si>
+  <si>
+    <t>mCG59d20181010</t>
+  </si>
+  <si>
+    <t>mCG59d20181011</t>
+  </si>
+  <si>
+    <t>mCG62d20181003</t>
+  </si>
+  <si>
+    <t>mCG62d20181004</t>
+  </si>
+  <si>
+    <t>mCG62d20181005</t>
+  </si>
+  <si>
+    <t>mCG62d20181008</t>
+  </si>
+  <si>
+    <t>mCG62d20181009</t>
+  </si>
+  <si>
+    <t>mCG62d20181010</t>
+  </si>
+  <si>
+    <t>mCG62d20181011</t>
+  </si>
+  <si>
+    <t>mCG61d20181003</t>
+  </si>
+  <si>
+    <t>mCG61d20181004</t>
+  </si>
+  <si>
+    <t>mCG61d20181005</t>
+  </si>
+  <si>
+    <t>mCG61d20181008</t>
+  </si>
+  <si>
+    <t>mCG61d20181009</t>
+  </si>
+  <si>
+    <t>mCG61d20181010</t>
+  </si>
+  <si>
+    <t>mCG61d20181011</t>
+  </si>
+  <si>
+    <t>mCG60d20181003</t>
+  </si>
+  <si>
+    <t>mCG60d20181004</t>
+  </si>
+  <si>
+    <t>mCG60d20181005</t>
+  </si>
+  <si>
+    <t>mCG60d20181008</t>
+  </si>
+  <si>
+    <t>mCG60d20181009</t>
+  </si>
+  <si>
+    <t>mCG60d20181010</t>
+  </si>
+  <si>
+    <t>mCG60d20181011</t>
+  </si>
+  <si>
+    <t>woof</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>mCG59d20181012</t>
+  </si>
+  <si>
+    <t>mCG59d20181015</t>
+  </si>
+  <si>
+    <t>mCG59d20181016a</t>
+  </si>
+  <si>
+    <t>opto</t>
+  </si>
+  <si>
+    <t>mCG59d20181017</t>
+  </si>
+  <si>
+    <t>mCG59d20181022</t>
+  </si>
+  <si>
+    <t>mCG59d20181023</t>
+  </si>
+  <si>
+    <t>mCG59d20181024</t>
+  </si>
+  <si>
+    <t>mCG59d20181025</t>
+  </si>
+  <si>
+    <t>mCG59d20181026</t>
+  </si>
+  <si>
+    <t>mCG60d20181012</t>
+  </si>
+  <si>
+    <t>mCG60d20181026</t>
+  </si>
+  <si>
+    <t>mCG60d20181015</t>
+  </si>
+  <si>
+    <t>mCG60d20181025</t>
+  </si>
+  <si>
+    <t>mCG60d20181022</t>
+  </si>
+  <si>
+    <t>mCG60d20181023</t>
+  </si>
+  <si>
+    <t>mCG60d20181024</t>
+  </si>
+  <si>
+    <t>mCG60d20181013</t>
+  </si>
+  <si>
+    <t>mCG60d20181016</t>
+  </si>
+  <si>
+    <t>mCG60d20181017b</t>
+  </si>
+  <si>
+    <t>mCG61d20181012</t>
+  </si>
+  <si>
+    <t>mCG61d20181015</t>
+  </si>
+  <si>
+    <t>mCG61d20181025</t>
+  </si>
+  <si>
+    <t>mCG61d20181016</t>
+  </si>
+  <si>
+    <t>mCG61d20181022</t>
+  </si>
+  <si>
+    <t>mCG61d20181023</t>
+  </si>
+  <si>
+    <t>mCG61d20181024</t>
+  </si>
+  <si>
+    <t>mCG61d20181026</t>
+  </si>
+  <si>
+    <t>mCG61d20181013</t>
+  </si>
+  <si>
+    <t>mCG61d20181017</t>
+  </si>
+  <si>
+    <t>mCG62d20181012</t>
+  </si>
+  <si>
+    <t>mCG62d20181015</t>
+  </si>
+  <si>
+    <t>mCG62d20181025</t>
+  </si>
+  <si>
+    <t>mCG62d20181016</t>
+  </si>
+  <si>
+    <t>mCG62d20181022</t>
+  </si>
+  <si>
+    <t>mCG62d20181023</t>
+  </si>
+  <si>
+    <t>mCG62d20181024</t>
+  </si>
+  <si>
+    <t>mCG62d20181026</t>
+  </si>
+  <si>
+    <t>mCG62d20181013</t>
+  </si>
+  <si>
+    <t>mCG39d20180425</t>
+  </si>
+  <si>
+    <t>mCG39d20180424</t>
+  </si>
+  <si>
+    <t>mCG39d20180423</t>
+  </si>
+  <si>
+    <t>mCG39d20180422</t>
+  </si>
+  <si>
+    <t>mCG39d20180420</t>
+  </si>
+  <si>
+    <t>mCG39d20180419</t>
+  </si>
+  <si>
+    <t>mCG39d20180418</t>
+  </si>
+  <si>
+    <t>mCG39d20180417</t>
+  </si>
+  <si>
+    <t>mCG39d20180416</t>
+  </si>
+  <si>
+    <t>mCG39d20180415</t>
+  </si>
+  <si>
+    <t>mCG39d20180413</t>
+  </si>
+  <si>
+    <t>mCG39d20180412</t>
+  </si>
+  <si>
+    <t>mCG39d20180411</t>
+  </si>
+  <si>
+    <t>mCG39d20180410</t>
+  </si>
+  <si>
+    <t>mCG39d20180409</t>
+  </si>
+  <si>
+    <t>mCG39d20180408</t>
+  </si>
+  <si>
+    <t>mCG39d20180406</t>
+  </si>
+  <si>
+    <t>mCG39d20180405</t>
+  </si>
+  <si>
+    <t>mCG39d20180404</t>
+  </si>
+  <si>
+    <t>mCG39d20180403</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>postS</t>
+  </si>
+  <si>
+    <t>mCG63d20181009</t>
+  </si>
+  <si>
+    <t>mCG63d20181010</t>
+  </si>
+  <si>
+    <t>mCG63d20181011</t>
+  </si>
+  <si>
+    <t>mCG63d20181012</t>
+  </si>
+  <si>
+    <t>mCG63d20181015</t>
+  </si>
+  <si>
+    <t>mCG63d20181016</t>
+  </si>
+  <si>
+    <t>mCG63d20181017</t>
+  </si>
+  <si>
+    <t>mCG63d20181018</t>
+  </si>
+  <si>
+    <t>mCG63d20181019</t>
+  </si>
+  <si>
+    <t>mCG63d20181022</t>
+  </si>
+  <si>
+    <t>mCG63d20181023</t>
+  </si>
+  <si>
+    <t>mCG63d20181024</t>
+  </si>
+  <si>
+    <t>mCG63d20181025</t>
+  </si>
+  <si>
+    <t>mCG63d20181026</t>
+  </si>
+  <si>
+    <t>mCG63d20181029</t>
+  </si>
+  <si>
+    <t>mCG63d20181030</t>
+  </si>
+  <si>
+    <t>mCG63d20181031</t>
+  </si>
+  <si>
+    <t>mCG63d20181101</t>
+  </si>
+  <si>
+    <t>mCG63d20181102</t>
+  </si>
+  <si>
+    <t>mCG63d20181105</t>
+  </si>
+  <si>
+    <t>mCG63d20181106</t>
+  </si>
+  <si>
+    <t>mCG63d20181107</t>
+  </si>
+  <si>
+    <t>mCG63d20181108</t>
+  </si>
+  <si>
+    <t>mCG64d20181009</t>
+  </si>
+  <si>
+    <t>mCG64d20181101</t>
+  </si>
+  <si>
+    <t>mCG64d20181010</t>
+  </si>
+  <si>
+    <t>mCG64d20181024</t>
+  </si>
+  <si>
+    <t>mCG64d20181106</t>
+  </si>
+  <si>
+    <t>mCG64d20181011</t>
+  </si>
+  <si>
+    <t>mCG64d20181025</t>
+  </si>
+  <si>
+    <t>mCG64d20181108</t>
+  </si>
+  <si>
+    <t>mCG64d20181012</t>
+  </si>
+  <si>
+    <t>mCG64d20181026</t>
+  </si>
+  <si>
+    <t>mCG64d20181015</t>
+  </si>
+  <si>
+    <t>mCG64d20181029</t>
+  </si>
+  <si>
+    <t>mCG64d20181016</t>
+  </si>
+  <si>
+    <t>mCG64d20181030</t>
+  </si>
+  <si>
+    <t>mCG64d20181017</t>
+  </si>
+  <si>
+    <t>mCG64d20181031</t>
+  </si>
+  <si>
+    <t>mCG64d20181018</t>
+  </si>
+  <si>
+    <t>mCG64d20181102</t>
+  </si>
+  <si>
+    <t>mCG64d20181019</t>
+  </si>
+  <si>
+    <t>mCG64d20181105</t>
+  </si>
+  <si>
+    <t>mCG64d20181022</t>
+  </si>
+  <si>
+    <t>mCG64d20181107</t>
+  </si>
+  <si>
+    <t>mCG65d20181009</t>
+  </si>
+  <si>
+    <t>mCG65d20181023</t>
+  </si>
+  <si>
+    <t>mCG65d20181101</t>
+  </si>
+  <si>
+    <t>mCG65d20181010</t>
+  </si>
+  <si>
+    <t>mCG65d20181024</t>
+  </si>
+  <si>
+    <t>mCG65d20181106</t>
+  </si>
+  <si>
+    <t>mCG65d20181011</t>
+  </si>
+  <si>
+    <t>mCG65d20181025</t>
+  </si>
+  <si>
+    <t>mCG65d20181108</t>
+  </si>
+  <si>
+    <t>mCG65d20181012</t>
+  </si>
+  <si>
+    <t>mCG65d20181026</t>
+  </si>
+  <si>
+    <t>mCG65d20181015</t>
+  </si>
+  <si>
+    <t>mCG65d20181029</t>
+  </si>
+  <si>
+    <t>mCG65d20181016</t>
+  </si>
+  <si>
+    <t>mCG65d20181030</t>
+  </si>
+  <si>
+    <t>mCG65d20181017</t>
+  </si>
+  <si>
+    <t>mCG65d20181031</t>
+  </si>
+  <si>
+    <t>mCG65d20181018</t>
+  </si>
+  <si>
+    <t>mCG65d20181102</t>
+  </si>
+  <si>
+    <t>mCG65d20181019</t>
+  </si>
+  <si>
+    <t>mCG65d20181105</t>
+  </si>
+  <si>
+    <t>mCG65d20181022</t>
+  </si>
+  <si>
+    <t>mCG65d20181107</t>
+  </si>
+  <si>
+    <t>mCG66d20181009</t>
+  </si>
+  <si>
+    <t>mCG66d20181023</t>
+  </si>
+  <si>
+    <t>mCG66d20181101</t>
+  </si>
+  <si>
+    <t>mCG66d20181010</t>
+  </si>
+  <si>
+    <t>mCG66d20181024</t>
+  </si>
+  <si>
+    <t>mCG66d20181106</t>
+  </si>
+  <si>
+    <t>mCG66d20181011</t>
+  </si>
+  <si>
+    <t>mCG66d20181025</t>
+  </si>
+  <si>
+    <t>mCG66d20181108</t>
+  </si>
+  <si>
+    <t>mCG66d20181012</t>
+  </si>
+  <si>
+    <t>mCG66d20181026</t>
+  </si>
+  <si>
+    <t>mCG66d20181015</t>
+  </si>
+  <si>
+    <t>mCG66d20181029</t>
+  </si>
+  <si>
+    <t>mCG66d20181016</t>
+  </si>
+  <si>
+    <t>mCG66d20181030</t>
+  </si>
+  <si>
+    <t>mCG66d20181017</t>
+  </si>
+  <si>
+    <t>mCG66d20181031</t>
+  </si>
+  <si>
+    <t>mCG66d20181018</t>
+  </si>
+  <si>
+    <t>mCG66d20181102</t>
+  </si>
+  <si>
+    <t>mCG66d20181019</t>
+  </si>
+  <si>
+    <t>mCG66d20181105</t>
+  </si>
+  <si>
+    <t>mCG66d20181022</t>
+  </si>
+  <si>
+    <t>mCG66d20181107</t>
+  </si>
+  <si>
+    <t>mCG66d20181008</t>
+  </si>
+  <si>
+    <t>mCG63d20181008</t>
+  </si>
+  <si>
+    <t>mCG64d20181008</t>
+  </si>
+  <si>
+    <t>mCG65d20181008</t>
+  </si>
+  <si>
+    <t>mCG59d20181030</t>
+  </si>
+  <si>
+    <t>mCG59d20181029</t>
+  </si>
+  <si>
+    <t>mCG59d20181031</t>
+  </si>
+  <si>
+    <t>mCG59d20181108</t>
+  </si>
+  <si>
+    <t>mCG60d20181029</t>
+  </si>
+  <si>
+    <t>mCG60d20181031</t>
+  </si>
+  <si>
+    <t>mCG60d20181108</t>
+  </si>
+  <si>
+    <t>mCG60d20181030</t>
+  </si>
+  <si>
+    <t>mCG60d20181101</t>
+  </si>
+  <si>
+    <t>mCG61d20181029</t>
+  </si>
+  <si>
+    <t>mCG61d20181031</t>
+  </si>
+  <si>
+    <t>mCG61d20181108</t>
+  </si>
+  <si>
+    <t>mCG61d20181030</t>
+  </si>
+  <si>
+    <t>mCG61d20181101</t>
+  </si>
+  <si>
+    <t>mCG62d20181029</t>
+  </si>
+  <si>
+    <t>mCG62d20181031</t>
+  </si>
+  <si>
+    <t>mCG62d20181101</t>
+  </si>
+  <si>
+    <t>mCG62d20181030</t>
+  </si>
+  <si>
+    <t>mCG62d20181108</t>
+  </si>
+  <si>
+    <t>mCG63d20181109</t>
+  </si>
+  <si>
+    <t>mCG63d20181112</t>
+  </si>
+  <si>
+    <t>mCG63d20181114</t>
+  </si>
+  <si>
+    <t>mCG63d20181110b</t>
+  </si>
+  <si>
+    <t>mCG63d20181113</t>
+  </si>
+  <si>
+    <t>mCG64d20181109</t>
+  </si>
+  <si>
+    <t>mCG64d20181110</t>
+  </si>
+  <si>
+    <t>mCG64d20181112</t>
+  </si>
+  <si>
+    <t>mCG64d20181114</t>
+  </si>
+  <si>
+    <t>mCG64d20181113</t>
+  </si>
+  <si>
+    <t>mCG66d20181110</t>
+  </si>
+  <si>
+    <t>mCG66d20181113</t>
+  </si>
+  <si>
+    <t>mCG66d20181109</t>
+  </si>
+  <si>
+    <t>mCG66d20181112</t>
+  </si>
+  <si>
+    <t>mCG66d20181114</t>
+  </si>
+  <si>
+    <t>mCG65d20181110</t>
+  </si>
+  <si>
+    <t>mCG65d20181113</t>
+  </si>
+  <si>
+    <t>mCG65d20181109</t>
+  </si>
+  <si>
+    <t>mCG65d20181112</t>
+  </si>
+  <si>
+    <t>mCG65d20181114</t>
+  </si>
+  <si>
+    <t>mCG59d20181109</t>
+  </si>
+  <si>
+    <t>mCG59d20181112</t>
+  </si>
+  <si>
+    <t>mCG59d20181110</t>
+  </si>
+  <si>
+    <t>mCG59d20181114</t>
+  </si>
+  <si>
+    <t>mCG62d20181109</t>
+  </si>
+  <si>
+    <t>mCG62d20181112</t>
+  </si>
+  <si>
+    <t>mCG62d20181110</t>
+  </si>
+  <si>
+    <t>mCG62d20181114</t>
+  </si>
+  <si>
+    <t>mCG61d20181109</t>
+  </si>
+  <si>
+    <t>mCG61d20181112</t>
+  </si>
+  <si>
+    <t>mCG61d20181110</t>
+  </si>
+  <si>
+    <t>mCG61d20181114</t>
+  </si>
+  <si>
+    <t>mCG60d20181109</t>
+  </si>
+  <si>
+    <t>mCG60d20181112</t>
+  </si>
+  <si>
+    <t>mCG60d20181110</t>
+  </si>
+  <si>
+    <t>mCG60d20181114</t>
+  </si>
+  <si>
+    <t>mCG59d20181116</t>
+  </si>
+  <si>
+    <t>mCG59d20181119</t>
+  </si>
+  <si>
+    <t>mCG59d20181117</t>
+  </si>
+  <si>
+    <t>mCG60d20181117</t>
+  </si>
+  <si>
+    <t>mCG61d20181117</t>
+  </si>
+  <si>
+    <t>mCG61d20181116</t>
+  </si>
+  <si>
+    <t>mCG62d20181117</t>
+  </si>
+  <si>
+    <t>mCG62d20181116</t>
+  </si>
+  <si>
+    <t>mCG63d20181115</t>
+  </si>
+  <si>
+    <t>mCG63d20181120</t>
+  </si>
+  <si>
+    <t>mCG63d20181126</t>
+  </si>
+  <si>
+    <t>mCG63d20181123</t>
+  </si>
+  <si>
+    <t>mCG63d20181129</t>
+  </si>
+  <si>
+    <t>mCG64d20181115</t>
+  </si>
+  <si>
+    <t>mCG64d20181123</t>
+  </si>
+  <si>
+    <t>mCG64d20181129</t>
+  </si>
+  <si>
+    <t>mCG64d20181120</t>
+  </si>
+  <si>
+    <t>mCG64d20181126</t>
+  </si>
+  <si>
+    <t>mCG65d20181115</t>
+  </si>
+  <si>
+    <t>mCG65d20181123</t>
+  </si>
+  <si>
+    <t>mCG65d20181129</t>
+  </si>
+  <si>
+    <t>mCG65d20181120</t>
+  </si>
+  <si>
+    <t>mCG65d20181126</t>
+  </si>
+  <si>
+    <t>mCG66d20181115</t>
+  </si>
+  <si>
+    <t>mCG66d20181123</t>
+  </si>
+  <si>
+    <t>mCG66d20181129</t>
+  </si>
+  <si>
+    <t>mCG66d20181120</t>
+  </si>
+  <si>
+    <t>mCG66d20181126</t>
+  </si>
+  <si>
+    <t>optodr</t>
+  </si>
+  <si>
+    <t>mCG60d20181120</t>
+  </si>
+  <si>
+    <t>mCG60d20181122</t>
+  </si>
+  <si>
+    <t>mCG60d20181123</t>
+  </si>
+  <si>
+    <t>mCG60d20181126</t>
+  </si>
+  <si>
+    <t>mCG60d20181127</t>
+  </si>
+  <si>
+    <t>mCG60d20181128</t>
   </si>
 </sst>
 </file>
@@ -2722,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4155,6 +5108,3314 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A43753-457F-4644-84F7-9AEB6B6419BB}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="4" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C2" t="s">
+        <v>822</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C3" t="s">
+        <v>838</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>768</v>
+      </c>
+      <c r="B4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C4" t="s">
+        <v>988</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C5" t="s">
+        <v>989</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B7" t="s">
+        <v>840</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>772</v>
+      </c>
+      <c r="B8" t="s">
+        <v>841</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B9" t="s">
+        <v>836</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B10" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B11" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>817</v>
+      </c>
+      <c r="B12" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>818</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>819</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>820</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>836</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828A872D-FE31-4D47-9836-89C8B2C030F1}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B6" t="s">
+        <v>830</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>764</v>
+      </c>
+      <c r="B9" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>765</v>
+      </c>
+      <c r="B10" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>795</v>
+      </c>
+      <c r="B11" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>796</v>
+      </c>
+      <c r="B12" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>797</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>799</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>834</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720C92FB-A525-47A2-A0F3-A8556FF1D8E9}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>756</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69728C59-D8D5-4029-9D54-AAD3E34AA135}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38DD776-C4BC-4F60-841E-9B220EB8C8EB}">
+  <dimension ref="A1:G130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" t="s">
+        <v>659</v>
+      </c>
+      <c r="F4" t="s">
+        <v>665</v>
+      </c>
+      <c r="G4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" t="s">
+        <v>592</v>
+      </c>
+      <c r="E5" t="s">
+        <v>660</v>
+      </c>
+      <c r="F5" t="s">
+        <v>666</v>
+      </c>
+      <c r="G5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D6" t="s">
+        <v>593</v>
+      </c>
+      <c r="E6" t="s">
+        <v>661</v>
+      </c>
+      <c r="F6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B7" t="s">
+        <v>555</v>
+      </c>
+      <c r="D7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E7" t="s">
+        <v>662</v>
+      </c>
+      <c r="F7" t="s">
+        <v>668</v>
+      </c>
+      <c r="G7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E8" t="s">
+        <v>671</v>
+      </c>
+      <c r="F8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D9" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" t="s">
+        <v>709</v>
+      </c>
+      <c r="F9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C10" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" t="s">
+        <v>597</v>
+      </c>
+      <c r="E10" t="s">
+        <v>701</v>
+      </c>
+      <c r="F10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" t="s">
+        <v>598</v>
+      </c>
+      <c r="E11" t="s">
+        <v>693</v>
+      </c>
+      <c r="F11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C12" t="s">
+        <v>539</v>
+      </c>
+      <c r="D12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E12" t="s">
+        <v>685</v>
+      </c>
+      <c r="F12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" t="s">
+        <v>543</v>
+      </c>
+      <c r="D13" t="s">
+        <v>657</v>
+      </c>
+      <c r="E13" t="s">
+        <v>677</v>
+      </c>
+      <c r="F13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>491</v>
+      </c>
+      <c r="B14" t="s">
+        <v>559</v>
+      </c>
+      <c r="C14" t="s">
+        <v>560</v>
+      </c>
+      <c r="D14" t="s">
+        <v>600</v>
+      </c>
+      <c r="F14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>545</v>
+      </c>
+      <c r="D15" t="s">
+        <v>601</v>
+      </c>
+      <c r="F15" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>494</v>
+      </c>
+      <c r="D16" t="s">
+        <v>602</v>
+      </c>
+      <c r="F16" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D17" t="s">
+        <v>603</v>
+      </c>
+      <c r="F17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>510</v>
+      </c>
+      <c r="D18" t="s">
+        <v>604</v>
+      </c>
+      <c r="F18" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>496</v>
+      </c>
+      <c r="D19" t="s">
+        <v>605</v>
+      </c>
+      <c r="F19" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D20" t="s">
+        <v>606</v>
+      </c>
+      <c r="F20" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>498</v>
+      </c>
+      <c r="D21" t="s">
+        <v>607</v>
+      </c>
+      <c r="F21" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>499</v>
+      </c>
+      <c r="D22" t="s">
+        <v>608</v>
+      </c>
+      <c r="F22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D23" t="s">
+        <v>609</v>
+      </c>
+      <c r="F23" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D24" t="s">
+        <v>610</v>
+      </c>
+      <c r="F24" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>501</v>
+      </c>
+      <c r="D25" t="s">
+        <v>658</v>
+      </c>
+      <c r="F25" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>502</v>
+      </c>
+      <c r="D26" t="s">
+        <v>611</v>
+      </c>
+      <c r="F26" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" t="s">
+        <v>612</v>
+      </c>
+      <c r="F27" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>505</v>
+      </c>
+      <c r="D28" t="s">
+        <v>613</v>
+      </c>
+      <c r="F28" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D29" t="s">
+        <v>614</v>
+      </c>
+      <c r="F29" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>546</v>
+      </c>
+      <c r="D30" t="s">
+        <v>615</v>
+      </c>
+      <c r="F30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>511</v>
+      </c>
+      <c r="D31" t="s">
+        <v>616</v>
+      </c>
+      <c r="F31" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>512</v>
+      </c>
+      <c r="D32" t="s">
+        <v>617</v>
+      </c>
+      <c r="F32" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>513</v>
+      </c>
+      <c r="D33" t="s">
+        <v>618</v>
+      </c>
+      <c r="F33" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>514</v>
+      </c>
+      <c r="D34" t="s">
+        <v>619</v>
+      </c>
+      <c r="F34" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>515</v>
+      </c>
+      <c r="D35" t="s">
+        <v>620</v>
+      </c>
+      <c r="F35" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>516</v>
+      </c>
+      <c r="D36" t="s">
+        <v>621</v>
+      </c>
+      <c r="F36" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>517</v>
+      </c>
+      <c r="D37" t="s">
+        <v>659</v>
+      </c>
+      <c r="F37" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>518</v>
+      </c>
+      <c r="D38" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>519</v>
+      </c>
+      <c r="D39" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>520</v>
+      </c>
+      <c r="D40" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>521</v>
+      </c>
+      <c r="D41" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>524</v>
+      </c>
+      <c r="D42" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>525</v>
+      </c>
+      <c r="D43" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>547</v>
+      </c>
+      <c r="D44" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>528</v>
+      </c>
+      <c r="D45" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>529</v>
+      </c>
+      <c r="D46" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>530</v>
+      </c>
+      <c r="D47" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>531</v>
+      </c>
+      <c r="D48" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>532</v>
+      </c>
+      <c r="D49" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>533</v>
+      </c>
+      <c r="D50" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>534</v>
+      </c>
+      <c r="D51" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>544</v>
+      </c>
+      <c r="D52" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>535</v>
+      </c>
+      <c r="D53" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>536</v>
+      </c>
+      <c r="D54" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>537</v>
+      </c>
+      <c r="D55" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>540</v>
+      </c>
+      <c r="D56" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>541</v>
+      </c>
+      <c r="D57" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>548</v>
+      </c>
+      <c r="D58" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>589</v>
+      </c>
+      <c r="D59" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>590</v>
+      </c>
+      <c r="D60" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>591</v>
+      </c>
+      <c r="D61" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>592</v>
+      </c>
+      <c r="D62" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>593</v>
+      </c>
+      <c r="D63" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>594</v>
+      </c>
+      <c r="D64" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>595</v>
+      </c>
+      <c r="D65" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>596</v>
+      </c>
+      <c r="D66" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>597</v>
+      </c>
+      <c r="D67" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>598</v>
+      </c>
+      <c r="D68" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>599</v>
+      </c>
+      <c r="D69" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>657</v>
+      </c>
+      <c r="D70" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>600</v>
+      </c>
+      <c r="D71" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>601</v>
+      </c>
+      <c r="D72" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>602</v>
+      </c>
+      <c r="D73" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0AC20A-800D-4328-B206-BB66F7B62008}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" t="s">
+        <v>677</v>
+      </c>
+      <c r="D3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B10" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>654</v>
+      </c>
+      <c r="B12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>662</v>
+      </c>
+      <c r="B13" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>668</v>
+      </c>
+      <c r="B14" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>678</v>
+      </c>
+      <c r="B15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>730</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76D3787-F720-43BE-BE23-DA7A970762D1}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2" t="s">
+        <v>727</v>
+      </c>
+      <c r="F2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B7" t="s">
+        <v>638</v>
+      </c>
+      <c r="D7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B9" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>643</v>
+      </c>
+      <c r="B12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>661</v>
+      </c>
+      <c r="B13" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>667</v>
+      </c>
+      <c r="B14" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>686</v>
+      </c>
+      <c r="B15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CABB42-D828-4499-87B6-7F3ADC11FB6C}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>624</v>
+      </c>
+      <c r="D4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>660</v>
+      </c>
+      <c r="B13" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>666</v>
+      </c>
+      <c r="B14" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>694</v>
+      </c>
+      <c r="B15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554766CB-119F-447C-8126-9E9B57290F56}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>659</v>
+      </c>
+      <c r="B13" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>702</v>
+      </c>
+      <c r="B15" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148BF86-A084-4BDF-9BA6-491EC7006D91}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>658</v>
+      </c>
+      <c r="B13" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B14" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>710</v>
+      </c>
+      <c r="B15" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A27757-7D52-4BB8-8FE1-5FE9BE8C0E1B}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>901</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>902</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>904</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>905</v>
+      </c>
+      <c r="B10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B11" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>912</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>915</v>
+      </c>
+      <c r="B18" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>918</v>
+      </c>
+      <c r="B19" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>920</v>
+      </c>
+      <c r="B20" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>922</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>926</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>928</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>930</v>
+      </c>
+      <c r="B25" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B26" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B27" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>932</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F781B-05F7-4138-ADC4-D0EA838F2883}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -4377,7 +8638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F286BCE7-D2D4-4B9A-AF31-2ACEE9F66CC6}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -4551,7 +8812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323713F2-6459-44D0-B874-19277B3A69D0}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -4728,7 +8989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96397BA9-EEA8-4258-9642-8C7688374814}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -4905,7 +9166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B473570-6873-44E7-90C6-6E27741765D2}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -5083,7 +9344,202 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEB0723-B75B-4586-85A7-E082BFC11DF1}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>879</v>
+      </c>
+      <c r="B6" t="s">
+        <v>864</v>
+      </c>
+      <c r="C6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>878</v>
+      </c>
+      <c r="C7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C8" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>876</v>
+      </c>
+      <c r="C9" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>875</v>
+      </c>
+      <c r="C10" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>874</v>
+      </c>
+      <c r="C11" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>873</v>
+      </c>
+      <c r="C12" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>872</v>
+      </c>
+      <c r="C13" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>871</v>
+      </c>
+      <c r="C14" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>870</v>
+      </c>
+      <c r="C15" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -5471,7 +9927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -5802,7 +10258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -6158,7 +10614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF34AAB7-AA72-4136-9543-E636C6C2E5C8}">
   <dimension ref="A1:A16"/>
   <sheetViews>
@@ -6256,12 +10712,233 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E9A06F-CACF-4256-AB46-3498A13691B5}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>957</v>
+      </c>
+      <c r="B4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>960</v>
+      </c>
+      <c r="B5" t="s">
+        <v>964</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B6" t="s">
+        <v>966</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>965</v>
+      </c>
+      <c r="B7" t="s">
+        <v>968</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>967</v>
+      </c>
+      <c r="B8" t="s">
+        <v>970</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>969</v>
+      </c>
+      <c r="B9" t="s">
+        <v>972</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>971</v>
+      </c>
+      <c r="B10" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>973</v>
+      </c>
+      <c r="B11" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>975</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>955</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>958</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>961</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>964</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>962</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A365224-DE23-4A0D-AA9B-41E155A09F1A}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6356,99 +11033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720C92FB-A525-47A2-A0F3-A8556FF1D8E9}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>756</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674D1323-1CC6-47F6-80BC-8F163F8DE94C}">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6806,12 +11396,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E27"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6824,9 +11414,11 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -6851,8 +11443,14 @@
       <c r="H1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -6877,8 +11475,14 @@
       <c r="H2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -6897,8 +11501,14 @@
       <c r="F3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -6918,7 +11528,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -6938,7 +11548,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -6958,7 +11568,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -6978,7 +11588,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -6998,7 +11608,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -7018,7 +11628,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -7038,7 +11648,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -7058,7 +11668,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -7078,7 +11688,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -7098,7 +11708,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -7118,7 +11728,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -7138,7 +11748,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -7821,12 +12431,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7839,9 +12449,12 @@
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -7866,8 +12479,17 @@
       <c r="H1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>824</v>
+      </c>
+      <c r="J1" t="s">
+        <v>463</v>
+      </c>
+      <c r="K1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -7892,8 +12514,17 @@
       <c r="H2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -7912,8 +12543,14 @@
       <c r="F3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -7932,8 +12569,14 @@
       <c r="F4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -7952,8 +12595,11 @@
       <c r="F5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -7972,8 +12618,11 @@
       <c r="F6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -7992,8 +12641,11 @@
       <c r="F7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -8012,8 +12664,11 @@
       <c r="F8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -8032,8 +12687,11 @@
       <c r="F9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -8052,8 +12710,11 @@
       <c r="F10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -8072,8 +12733,11 @@
       <c r="F11" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -8092,8 +12756,11 @@
       <c r="F12" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -8112,8 +12779,11 @@
       <c r="F13" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -8132,8 +12802,11 @@
       <c r="F14" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -8152,8 +12825,11 @@
       <c r="F15" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -8172,8 +12848,11 @@
       <c r="F16" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -8192,8 +12871,11 @@
       <c r="F17" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -8206,8 +12888,11 @@
       <c r="D18" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -8220,8 +12905,11 @@
       <c r="D19" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -8234,8 +12922,11 @@
       <c r="D20" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -8248,8 +12939,11 @@
       <c r="D21" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>233</v>
       </c>
@@ -8262,8 +12956,11 @@
       <c r="D22" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>234</v>
       </c>
@@ -8276,8 +12973,11 @@
       <c r="D23" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>235</v>
       </c>
@@ -8290,8 +12990,11 @@
       <c r="D24" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>236</v>
       </c>
@@ -8304,8 +13007,11 @@
       <c r="D25" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -8318,8 +13024,11 @@
       <c r="D26" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>238</v>
       </c>
@@ -8332,8 +13041,11 @@
       <c r="D27" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -8346,8 +13058,11 @@
       <c r="D28" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>240</v>
       </c>
@@ -8357,8 +13072,11 @@
       <c r="D29" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>241</v>
       </c>
@@ -8368,8 +13086,11 @@
       <c r="D30" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>242</v>
       </c>
@@ -8379,8 +13100,11 @@
       <c r="D31" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>243</v>
       </c>
@@ -8390,8 +13114,11 @@
       <c r="D32" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>244</v>
       </c>
@@ -8401,8 +13128,11 @@
       <c r="D33" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -8413,7 +13143,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>205</v>
       </c>
@@ -8424,7 +13154,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>206</v>
       </c>
@@ -8435,7 +13165,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>207</v>
       </c>
@@ -8446,7 +13176,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>208</v>
       </c>
@@ -8457,7 +13187,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -8465,7 +13195,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -8473,7 +13203,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -8481,7 +13211,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -8489,7 +13219,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>231</v>
       </c>
@@ -8497,7 +13227,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>232</v>
       </c>
@@ -8505,7 +13235,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>245</v>
       </c>
@@ -8513,7 +13243,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -8521,7 +13251,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>252</v>
       </c>
@@ -8529,7 +13259,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>253</v>
       </c>
@@ -8688,7 +13418,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8697,11 +13427,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -9070,12 +13800,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9464,7 +14194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
@@ -10586,7 +15316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -10815,7 +15545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -11144,1228 +15874,219 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69728C59-D8D5-4029-9D54-AAD3E34AA135}">
-  <dimension ref="A1:B13"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C82AB4-6348-47D3-A55A-527A7ED6B1EE}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
       <c r="B1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+      <c r="B2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+      <c r="B3" t="s">
+        <v>935</v>
+      </c>
+      <c r="C3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+      <c r="B4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+      <c r="B5" t="s">
+        <v>941</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+      <c r="B6" t="s">
+        <v>943</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+      <c r="B7" t="s">
+        <v>945</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+      <c r="B8" t="s">
+        <v>947</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+      <c r="B9" t="s">
+        <v>949</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+      <c r="B10" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+      <c r="B11" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>751</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38DD776-C4BC-4F60-841E-9B220EB8C8EB}">
-  <dimension ref="A1:G130"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E1" t="s">
-        <v>655</v>
-      </c>
-      <c r="F1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D2" t="s">
-        <v>589</v>
-      </c>
-      <c r="E2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F2" t="s">
-        <v>663</v>
-      </c>
-      <c r="G2" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E3" t="s">
-        <v>658</v>
-      </c>
-      <c r="F3" t="s">
-        <v>664</v>
-      </c>
-      <c r="G3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B4" t="s">
-        <v>551</v>
-      </c>
-      <c r="C4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E4" t="s">
-        <v>659</v>
-      </c>
-      <c r="F4" t="s">
-        <v>665</v>
-      </c>
-      <c r="G4" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D5" t="s">
-        <v>592</v>
-      </c>
-      <c r="E5" t="s">
-        <v>660</v>
-      </c>
-      <c r="F5" t="s">
-        <v>666</v>
-      </c>
-      <c r="G5" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>481</v>
-      </c>
-      <c r="B6" t="s">
-        <v>507</v>
-      </c>
-      <c r="C6" t="s">
-        <v>554</v>
-      </c>
-      <c r="D6" t="s">
-        <v>593</v>
-      </c>
-      <c r="E6" t="s">
-        <v>661</v>
-      </c>
-      <c r="F6" t="s">
-        <v>667</v>
-      </c>
-      <c r="G6" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B7" t="s">
-        <v>555</v>
-      </c>
-      <c r="D7" t="s">
-        <v>594</v>
-      </c>
-      <c r="E7" t="s">
-        <v>662</v>
-      </c>
-      <c r="F7" t="s">
-        <v>668</v>
-      </c>
-      <c r="G7" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>483</v>
-      </c>
-      <c r="B8" t="s">
-        <v>522</v>
-      </c>
-      <c r="C8" t="s">
-        <v>523</v>
-      </c>
-      <c r="D8" t="s">
-        <v>595</v>
-      </c>
-      <c r="E8" t="s">
-        <v>671</v>
-      </c>
-      <c r="F8" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>484</v>
-      </c>
-      <c r="B9" t="s">
-        <v>526</v>
-      </c>
-      <c r="C9" t="s">
-        <v>527</v>
-      </c>
-      <c r="D9" t="s">
-        <v>596</v>
-      </c>
-      <c r="E9" t="s">
-        <v>709</v>
-      </c>
-      <c r="F9" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>485</v>
-      </c>
-      <c r="B10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C10" t="s">
-        <v>557</v>
-      </c>
-      <c r="D10" t="s">
-        <v>597</v>
-      </c>
-      <c r="E10" t="s">
-        <v>701</v>
-      </c>
-      <c r="F10" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D11" t="s">
-        <v>598</v>
-      </c>
-      <c r="E11" t="s">
-        <v>693</v>
-      </c>
-      <c r="F11" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>487</v>
-      </c>
-      <c r="B12" t="s">
-        <v>538</v>
-      </c>
-      <c r="C12" t="s">
-        <v>539</v>
-      </c>
-      <c r="D12" t="s">
-        <v>599</v>
-      </c>
-      <c r="E12" t="s">
-        <v>685</v>
-      </c>
-      <c r="F12" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>490</v>
+        <v>932</v>
       </c>
       <c r="B13" t="s">
-        <v>542</v>
-      </c>
-      <c r="C13" t="s">
-        <v>543</v>
-      </c>
-      <c r="D13" t="s">
-        <v>657</v>
-      </c>
-      <c r="E13" t="s">
-        <v>677</v>
-      </c>
-      <c r="F13" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>491</v>
+        <v>935</v>
       </c>
       <c r="B14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C14" t="s">
-        <v>560</v>
-      </c>
-      <c r="D14" t="s">
-        <v>600</v>
-      </c>
-      <c r="F14" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>545</v>
-      </c>
-      <c r="D15" t="s">
-        <v>601</v>
-      </c>
-      <c r="F15" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>494</v>
-      </c>
-      <c r="D16" t="s">
-        <v>602</v>
-      </c>
-      <c r="F16" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>495</v>
-      </c>
-      <c r="D17" t="s">
-        <v>603</v>
-      </c>
-      <c r="F17" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>510</v>
-      </c>
-      <c r="D18" t="s">
-        <v>604</v>
-      </c>
-      <c r="F18" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>496</v>
-      </c>
-      <c r="D19" t="s">
-        <v>605</v>
-      </c>
-      <c r="F19" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>497</v>
-      </c>
-      <c r="D20" t="s">
-        <v>606</v>
-      </c>
-      <c r="F20" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>498</v>
-      </c>
-      <c r="D21" t="s">
-        <v>607</v>
-      </c>
-      <c r="F21" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>499</v>
-      </c>
-      <c r="D22" t="s">
-        <v>608</v>
-      </c>
-      <c r="F22" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>509</v>
-      </c>
-      <c r="D23" t="s">
-        <v>609</v>
-      </c>
-      <c r="F23" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>500</v>
-      </c>
-      <c r="D24" t="s">
-        <v>610</v>
-      </c>
-      <c r="F24" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>501</v>
-      </c>
-      <c r="D25" t="s">
-        <v>658</v>
-      </c>
-      <c r="F25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>502</v>
-      </c>
-      <c r="D26" t="s">
-        <v>611</v>
-      </c>
-      <c r="F26" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D27" t="s">
-        <v>612</v>
-      </c>
-      <c r="F27" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>505</v>
-      </c>
-      <c r="D28" t="s">
-        <v>613</v>
-      </c>
-      <c r="F28" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>506</v>
-      </c>
-      <c r="D29" t="s">
-        <v>614</v>
-      </c>
-      <c r="F29" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>546</v>
-      </c>
-      <c r="D30" t="s">
-        <v>615</v>
-      </c>
-      <c r="F30" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>511</v>
-      </c>
-      <c r="D31" t="s">
-        <v>616</v>
-      </c>
-      <c r="F31" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" t="s">
-        <v>617</v>
-      </c>
-      <c r="F32" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>513</v>
-      </c>
-      <c r="D33" t="s">
-        <v>618</v>
-      </c>
-      <c r="F33" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>514</v>
-      </c>
-      <c r="D34" t="s">
-        <v>619</v>
-      </c>
-      <c r="F34" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>515</v>
-      </c>
-      <c r="D35" t="s">
-        <v>620</v>
-      </c>
-      <c r="F35" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>516</v>
-      </c>
-      <c r="D36" t="s">
-        <v>621</v>
-      </c>
-      <c r="F36" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>517</v>
-      </c>
-      <c r="D37" t="s">
-        <v>659</v>
-      </c>
-      <c r="F37" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>518</v>
-      </c>
-      <c r="D38" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>519</v>
-      </c>
-      <c r="D39" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>520</v>
-      </c>
-      <c r="D40" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>521</v>
-      </c>
-      <c r="D41" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>524</v>
-      </c>
-      <c r="D42" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>525</v>
-      </c>
-      <c r="D43" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>547</v>
-      </c>
-      <c r="D44" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>528</v>
-      </c>
-      <c r="D45" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>529</v>
-      </c>
-      <c r="D46" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>530</v>
-      </c>
-      <c r="D47" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>531</v>
-      </c>
-      <c r="D48" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>532</v>
-      </c>
-      <c r="D49" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>533</v>
-      </c>
-      <c r="D50" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>534</v>
-      </c>
-      <c r="D51" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>544</v>
-      </c>
-      <c r="D52" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>535</v>
-      </c>
-      <c r="D53" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>536</v>
-      </c>
-      <c r="D54" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>537</v>
-      </c>
-      <c r="D55" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>540</v>
-      </c>
-      <c r="D56" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>541</v>
-      </c>
-      <c r="D57" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>548</v>
-      </c>
-      <c r="D58" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>589</v>
-      </c>
-      <c r="D59" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>590</v>
-      </c>
-      <c r="D60" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>591</v>
-      </c>
-      <c r="D61" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>592</v>
-      </c>
-      <c r="D62" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>593</v>
-      </c>
-      <c r="D63" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>594</v>
-      </c>
-      <c r="D64" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>595</v>
-      </c>
-      <c r="D65" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>596</v>
-      </c>
-      <c r="D66" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>597</v>
-      </c>
-      <c r="D67" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>598</v>
-      </c>
-      <c r="D68" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>599</v>
-      </c>
-      <c r="D69" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>657</v>
-      </c>
-      <c r="D70" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>600</v>
-      </c>
-      <c r="D71" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>601</v>
-      </c>
-      <c r="D72" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>602</v>
-      </c>
-      <c r="D73" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>662</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -12375,16 +16096,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0AC20A-800D-4328-B206-BB66F7B62008}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4837D56E-624D-44BA-B10B-B6C7CCBF7A21}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -12392,221 +16118,212 @@
         <v>549</v>
       </c>
       <c r="C1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>644</v>
+        <v>979</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>912</v>
       </c>
       <c r="C2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D2" t="s">
-        <v>668</v>
-      </c>
-      <c r="E2" t="s">
-        <v>729</v>
-      </c>
-      <c r="F2" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>645</v>
+        <v>909</v>
       </c>
       <c r="B3" t="s">
-        <v>645</v>
+        <v>915</v>
       </c>
       <c r="C3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>646</v>
+        <v>911</v>
       </c>
       <c r="B4" t="s">
-        <v>646</v>
-      </c>
-      <c r="D4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+      <c r="C4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>914</v>
       </c>
       <c r="B5" t="s">
-        <v>647</v>
-      </c>
-      <c r="D5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>648</v>
+        <v>917</v>
       </c>
       <c r="B6" t="s">
-        <v>648</v>
-      </c>
-      <c r="D6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>649</v>
+        <v>919</v>
       </c>
       <c r="B7" t="s">
-        <v>649</v>
-      </c>
-      <c r="D7" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>650</v>
+        <v>921</v>
       </c>
       <c r="B8" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>651</v>
+        <v>923</v>
       </c>
       <c r="B9" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>652</v>
+        <v>925</v>
       </c>
       <c r="B10" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>653</v>
+        <v>927</v>
       </c>
       <c r="B11" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>654</v>
+        <v>929</v>
       </c>
       <c r="B12" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>662</v>
+        <v>912</v>
       </c>
       <c r="B13" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>668</v>
+        <v>915</v>
       </c>
       <c r="B14" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>678</v>
+        <v>918</v>
       </c>
       <c r="B15" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>683</v>
+        <v>920</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>677</v>
+        <v>922</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>684</v>
+        <v>924</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>679</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>680</v>
+        <v>926</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>681</v>
+        <v>928</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>682</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>729</v>
+        <v>930</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>730</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76D3787-F720-43BE-BE23-DA7A970762D1}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C926D40F-3D56-4993-B113-5D88E40901E5}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -12614,203 +16331,196 @@
         <v>549</v>
       </c>
       <c r="C1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>633</v>
+        <v>978</v>
       </c>
       <c r="B2" t="s">
-        <v>633</v>
+        <v>896</v>
       </c>
       <c r="C2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D2" t="s">
-        <v>667</v>
-      </c>
-      <c r="E2" t="s">
-        <v>727</v>
-      </c>
-      <c r="F2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>634</v>
+        <v>886</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>897</v>
       </c>
       <c r="C3" t="s">
-        <v>685</v>
-      </c>
-      <c r="D3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>635</v>
+        <v>887</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
-      </c>
-      <c r="D4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+      <c r="C4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>636</v>
+        <v>888</v>
       </c>
       <c r="B5" t="s">
-        <v>636</v>
-      </c>
-      <c r="D5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>637</v>
+        <v>889</v>
       </c>
       <c r="B6" t="s">
-        <v>637</v>
-      </c>
-      <c r="D6" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>638</v>
+        <v>890</v>
       </c>
       <c r="B7" t="s">
-        <v>638</v>
-      </c>
-      <c r="D7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>639</v>
+        <v>891</v>
       </c>
       <c r="B8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>640</v>
+        <v>892</v>
       </c>
       <c r="B9" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>641</v>
+        <v>893</v>
       </c>
       <c r="B10" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>642</v>
+        <v>894</v>
       </c>
       <c r="B11" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>643</v>
+        <v>895</v>
       </c>
       <c r="B12" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>661</v>
+        <v>896</v>
       </c>
       <c r="B13" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>667</v>
+        <v>897</v>
       </c>
       <c r="B14" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>686</v>
+        <v>898</v>
       </c>
       <c r="B15" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>691</v>
+        <v>899</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>685</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>692</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>687</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>688</v>
+        <v>903</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>689</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>690</v>
+        <v>905</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>727</v>
+        <v>906</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>728</v>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -12819,220 +16529,391 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CABB42-D828-4499-87B6-7F3ADC11FB6C}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D95D70B-F08A-47C6-A041-57EE214DAA12}">
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>549</v>
       </c>
       <c r="B1" t="s">
-        <v>549</v>
+        <v>828</v>
       </c>
       <c r="C1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>622</v>
+        <v>801</v>
       </c>
       <c r="B2" t="s">
-        <v>622</v>
-      </c>
-      <c r="C2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E2" t="s">
-        <v>725</v>
-      </c>
-      <c r="F2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>623</v>
+        <v>826</v>
       </c>
       <c r="B3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C3" t="s">
-        <v>693</v>
-      </c>
-      <c r="D3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>624</v>
+        <v>827</v>
       </c>
       <c r="B4" t="s">
-        <v>624</v>
-      </c>
-      <c r="D4" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>625</v>
+        <v>829</v>
       </c>
       <c r="B5" t="s">
-        <v>625</v>
-      </c>
-      <c r="D5" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>626</v>
+        <v>830</v>
       </c>
       <c r="B6" t="s">
-        <v>626</v>
-      </c>
-      <c r="D6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>627</v>
+        <v>831</v>
       </c>
       <c r="B7" t="s">
-        <v>627</v>
-      </c>
-      <c r="D7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>628</v>
+        <v>832</v>
       </c>
       <c r="B8" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>629</v>
+        <v>834</v>
       </c>
       <c r="B9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>630</v>
+        <v>982</v>
       </c>
       <c r="B10" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>631</v>
+        <v>983</v>
       </c>
       <c r="B11" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>632</v>
+        <v>984</v>
       </c>
       <c r="B12" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>660</v>
+        <v>1022</v>
       </c>
       <c r="B13" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>666</v>
+        <v>1023</v>
       </c>
       <c r="B14" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>694</v>
+        <v>1038</v>
       </c>
       <c r="B15" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+      <c r="B17" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+      <c r="B18" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+      <c r="B19" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="B20" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>726</v>
+        <v>985</v>
+      </c>
+      <c r="B24" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>986</v>
+      </c>
+      <c r="B25" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>987</v>
+      </c>
+      <c r="B26" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B27" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>845</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -13041,16 +16922,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554766CB-119F-447C-8126-9E9B57290F56}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D65198-CD7E-4CD7-8CD5-CC786702D4DF}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="4" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -13058,203 +16944,218 @@
         <v>549</v>
       </c>
       <c r="C1" t="s">
-        <v>550</v>
+        <v>828</v>
       </c>
       <c r="D1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>611</v>
+        <v>785</v>
       </c>
       <c r="B2" t="s">
-        <v>611</v>
+        <v>855</v>
       </c>
       <c r="C2" t="s">
-        <v>659</v>
+        <v>808</v>
       </c>
       <c r="D2" t="s">
-        <v>665</v>
-      </c>
-      <c r="E2" t="s">
-        <v>723</v>
-      </c>
-      <c r="F2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>793</v>
       </c>
       <c r="B3" t="s">
-        <v>612</v>
+        <v>856</v>
       </c>
       <c r="C3" t="s">
-        <v>701</v>
+        <v>857</v>
       </c>
       <c r="D3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>786</v>
       </c>
       <c r="B4" t="s">
-        <v>613</v>
+        <v>858</v>
+      </c>
+      <c r="C4" t="s">
+        <v>998</v>
       </c>
       <c r="D4" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>614</v>
+        <v>787</v>
       </c>
       <c r="B5" t="s">
-        <v>614</v>
+        <v>859</v>
+      </c>
+      <c r="C5" t="s">
+        <v>997</v>
       </c>
       <c r="D5" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>615</v>
+        <v>788</v>
       </c>
       <c r="B6" t="s">
-        <v>615</v>
+        <v>860</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1024</v>
       </c>
       <c r="D6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>616</v>
+        <v>789</v>
       </c>
       <c r="B7" t="s">
-        <v>616</v>
+        <v>861</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1025</v>
       </c>
       <c r="D7" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>617</v>
+        <v>790</v>
       </c>
       <c r="B8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>618</v>
+        <v>791</v>
       </c>
       <c r="B9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>619</v>
+        <v>794</v>
       </c>
       <c r="B10" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>620</v>
+        <v>792</v>
       </c>
       <c r="B11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>621</v>
+        <v>802</v>
       </c>
       <c r="B12" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>659</v>
+        <v>803</v>
       </c>
       <c r="B13" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>665</v>
+        <v>804</v>
       </c>
       <c r="B14" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>702</v>
-      </c>
-      <c r="B15" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>707</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>701</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>708</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>703</v>
+        <v>855</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>704</v>
+        <v>863</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>705</v>
+        <v>856</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>706</v>
+        <v>858</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>723</v>
+        <v>859</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>724</v>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -13263,16 +17164,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148BF86-A084-4BDF-9BA6-491EC7006D91}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8164CABE-2713-4497-BBEB-99AE364EDCD5}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -13280,207 +17186,208 @@
         <v>549</v>
       </c>
       <c r="C1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>784</v>
       </c>
       <c r="B2" t="s">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="C2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D2" t="s">
-        <v>664</v>
-      </c>
-      <c r="E2" t="s">
-        <v>721</v>
-      </c>
-      <c r="F2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>775</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>846</v>
       </c>
       <c r="C3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>776</v>
       </c>
       <c r="B4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+      <c r="C4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>603</v>
+        <v>777</v>
       </c>
       <c r="B5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D5" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="C5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>604</v>
+        <v>778</v>
       </c>
       <c r="B6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>605</v>
+        <v>779</v>
       </c>
       <c r="B7" t="s">
-        <v>605</v>
-      </c>
-      <c r="D7" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>606</v>
+        <v>780</v>
       </c>
       <c r="B8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>607</v>
+        <v>781</v>
       </c>
       <c r="B9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>608</v>
+        <v>782</v>
       </c>
       <c r="B10" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>609</v>
+        <v>783</v>
       </c>
       <c r="B11" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>610</v>
+        <v>809</v>
       </c>
       <c r="B12" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="B13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>664</v>
+        <v>811</v>
       </c>
       <c r="B14" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>710</v>
+        <v>812</v>
       </c>
       <c r="B15" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>715</v>
+        <v>813</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>709</v>
+        <v>814</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>716</v>
+        <v>815</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>711</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>712</v>
+        <v>853</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>713</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>714</v>
+        <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>721</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>722</v>
+        <v>849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>852</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/matlabCode/operantMatching/goodBehDays.xlsx
+++ b/matlabCode/operantMatching/goodBehDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalla\Documents\GitHub\dallasAnalysis\matlabCode\operantMatching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED9BB06-F787-4D5E-A19E-82344131305F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA447AF2-0F46-4838-AB90-71752C73838B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21980" windowHeight="16680" tabRatio="875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21980" windowHeight="16680" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="29" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1072">
   <si>
     <t>mCG05d20161115</t>
   </si>
@@ -3281,9 +3281,6 @@
   </si>
   <si>
     <t>mCG63d20181110B</t>
-  </si>
-  <si>
-    <t>mCG63d20181110</t>
   </si>
 </sst>
 </file>
@@ -10722,8 +10719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E9A06F-CACF-4256-AB46-3498A13691B5}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10935,52 +10932,52 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1072</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1045</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1047</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1046</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1048</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -15934,8 +15931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C82AB4-6348-47D3-A55A-527A7ED6B1EE}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16147,52 +16144,52 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1000</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1072</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1001</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1002</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -16205,8 +16202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4837D56E-624D-44BA-B10B-B6C7CCBF7A21}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16410,52 +16407,52 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1072</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -16468,7 +16465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C926D40F-3D56-4993-B113-5D88E40901E5}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/matlabCode/operantMatching/goodBehDays.xlsx
+++ b/matlabCode/operantMatching/goodBehDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalla\Documents\GitHub\dallasAnalysis\matlabCode\operantMatching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA447AF2-0F46-4838-AB90-71752C73838B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A331F20B-5418-43E9-9EF6-FA751007025A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21980" windowHeight="16680" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21980" windowHeight="16680" tabRatio="875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="29" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="1072">
   <si>
     <t>mCG05d20161115</t>
   </si>
@@ -10719,7 +10719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E9A06F-CACF-4256-AB46-3498A13691B5}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -16200,10 +16200,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4837D56E-624D-44BA-B10B-B6C7CCBF7A21}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16341,7 +16341,7 @@
         <v>912</v>
       </c>
       <c r="B13" t="s">
-        <v>1008</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -16349,16 +16349,13 @@
         <v>915</v>
       </c>
       <c r="B14" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>918</v>
       </c>
-      <c r="B15" t="s">
-        <v>1053</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -16427,31 +16424,26 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1008</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
         <v>1051</v>
       </c>
     </row>
